--- a/wash_P/TKM.xlsx
+++ b/wash_P/TKM.xlsx
@@ -90635,7 +90635,7 @@
         <v>0</v>
       </c>
       <c r="FX29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY29" t="n">
         <v>0</v>
